--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>value set InterOp'Santé - Statut d'une ligne de traitement d'une FCT</t>
+    <t>value set Interop'Santé - Statut d'une ligne de traitement d'une FCT</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
